--- a/doc/image.xlsx
+++ b/doc/image.xlsx
@@ -80,6 +80,193 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="円/楕円 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3200400" y="25565100"/>
+          <a:ext cx="4000500" cy="4000500"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="二等辺三角形 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="14782800"/>
+          <a:ext cx="4362450" cy="1838325"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:pattFill prst="wdDnDiag">
+          <a:fgClr>
+            <a:srgbClr val="FFC000"/>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="bg1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="16621125"/>
+          <a:ext cx="4362450" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:pattFill prst="wdDnDiag">
+          <a:fgClr>
+            <a:srgbClr val="FFC000"/>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="bg1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>609599</xdr:colOff>
       <xdr:row>36</xdr:row>
@@ -757,8 +944,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="19863478">
-          <a:off x="1797760" y="1839743"/>
-          <a:ext cx="592541" cy="433815"/>
+          <a:off x="1797760" y="1812529"/>
+          <a:ext cx="592541" cy="425650"/>
           <a:chOff x="2476500" y="2390775"/>
           <a:chExt cx="752479" cy="490538"/>
         </a:xfrm>
@@ -1369,8 +1556,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="19863478">
-          <a:off x="506698" y="7448835"/>
-          <a:ext cx="592541" cy="433815"/>
+          <a:off x="506698" y="7334535"/>
+          <a:ext cx="592541" cy="425651"/>
           <a:chOff x="2476500" y="2390775"/>
           <a:chExt cx="752479" cy="490538"/>
         </a:xfrm>
@@ -1802,6 +1989,4580 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>451757</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>582386</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>43544</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="円/楕円 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1137557" y="9851572"/>
+          <a:ext cx="816429" cy="816429"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>484414</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1534886" y="10254342"/>
+          <a:ext cx="2378528" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>413657</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>234042</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>48986</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2471057" y="9731829"/>
+              <a:ext cx="506185" cy="419100"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="⃗"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑣</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2471057" y="9731829"/>
+              <a:ext cx="506185" cy="419100"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑣 ⃗</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>605518</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>14969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>425903</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>83005</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="42" name="正方形/長方形 41"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1291318" y="11330669"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝑝</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="42" name="正方形/長方形 41"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1291318" y="11330669"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑝</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="11172825"/>
+          <a:ext cx="8172450" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線コネクタ 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="10153650"/>
+          <a:ext cx="0" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>632732</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>77561</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>43544</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="円/楕円 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6119132" y="9699172"/>
+          <a:ext cx="816429" cy="802822"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent1">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+        </a:gradFill>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線コネクタ 49"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6534150" y="10153650"/>
+          <a:ext cx="0" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>100693</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>14969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>606878</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>83005</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="52" name="正方形/長方形 51"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6272893" y="11330669"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑝</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="52" name="正方形/長方形 51"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6272893" y="11330669"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑝_𝑡</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="左中かっこ 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="3733800" y="9648824"/>
+          <a:ext cx="619125" cy="4962525"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 58967"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>376918</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>100694</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>197303</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>168730</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="56" name="正方形/長方形 55"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3805918" y="12445094"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>t</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="56" name="正方形/長方形 55"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3805918" y="12445094"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>"t</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="18164175"/>
+          <a:ext cx="6105525" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1381125" y="13963650"/>
+          <a:ext cx="0" cy="4981575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5443</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>72119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>511628</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>140155</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="63" name="正方形/長方形 62"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5491843" y="18245819"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>t</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="63" name="正方形/長方形 62"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5491843" y="18245819"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>"t</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線コネクタ 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="371475" y="14239875"/>
+          <a:ext cx="6638925" cy="2819400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>34019</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>683078</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>102055</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="79" name="正方形/長方形 78"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="862693" y="18207719"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>0</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="79" name="正方形/長方形 78"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="862693" y="18207719"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>0</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>253093</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>100694</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>73478</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>168730</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="81" name="正方形/長方形 80"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="938893" y="16216994"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑣</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="81" name="正方形/長方形 80"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="938893" y="16216994"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑣_0</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>234043</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>149680</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="82" name="正方形/長方形 81"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="919843" y="14483444"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑣</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="82" name="正方形/長方形 81"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="919843" y="14483444"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑣_𝑡</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線コネクタ 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="14754225"/>
+          <a:ext cx="4400550" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="直線コネクタ 82"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5762626" y="14773275"/>
+          <a:ext cx="0" cy="3371850"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>186418</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>148319</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>44905</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="84" name="正方形/長方形 83"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7044418" y="17979119"/>
+              <a:ext cx="804182" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" i="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>時間</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="84" name="正方形/長方形 83"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7044418" y="17979119"/>
+              <a:ext cx="804182" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>時間</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>53068</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>149680</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="86" name="正方形/長方形 85"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="738868" y="13626194"/>
+              <a:ext cx="804182" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" i="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>速さ</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="86" name="正方形/長方形 85"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="738868" y="13626194"/>
+              <a:ext cx="804182" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>速さ</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>670832</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>145597</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>115661</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>91169</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="円/楕円 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670832" y="20548147"/>
+          <a:ext cx="816429" cy="802822"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>382361</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直線矢印コネクタ 77"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1068161" y="20945474"/>
+          <a:ext cx="1675039" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>70757</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>576942</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="87" name="正方形/長方形 86"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2128157" y="21031200"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="⃗"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" i="1">
+                                <a:solidFill>
+                                  <a:sysClr val="windowText" lastClr="000000"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:sysClr val="windowText" lastClr="000000"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                              <m:t>𝑣</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:sysClr val="windowText" lastClr="000000"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                              <m:t>0</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:e>
+                    </m:acc>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="87" name="正方形/長方形 86"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2128157" y="21031200"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑣_0 ) ⃗</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="直線矢印コネクタ 88"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333375" y="22021800"/>
+          <a:ext cx="8172450" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="直線コネクタ 89"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1076325" y="21002625"/>
+          <a:ext cx="0" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>166007</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>145597</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>296636</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>91169</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="円/楕円 90"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5652407" y="20548147"/>
+          <a:ext cx="816429" cy="802822"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent1">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+        </a:gradFill>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="直線コネクタ 91"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6067425" y="21002625"/>
+          <a:ext cx="0" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>319768</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>62594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>140153</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>130630</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="93" name="正方形/長方形 92"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5806168" y="22179644"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑝</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="93" name="正方形/長方形 92"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5806168" y="22179644"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑝_𝑡</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="左中かっこ 94"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="3267075" y="20497799"/>
+          <a:ext cx="619125" cy="4962525"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 58967"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>586468</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>24494</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>406853</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>92530</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="96" name="正方形/長方形 95"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3329668" y="23341694"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>t</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="96" name="正方形/長方形 95"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3329668" y="23341694"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>"t</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>280307</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>100692</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="98" name="正方形/長方形 97"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8509907" y="21031200"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="⃗"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" i="1">
+                                <a:solidFill>
+                                  <a:sysClr val="windowText" lastClr="000000"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:sysClr val="windowText" lastClr="000000"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                              <m:t>𝑣</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:sysClr val="windowText" lastClr="000000"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                              <m:t>𝑡</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:e>
+                    </m:acc>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="98" name="正方形/長方形 97"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8509907" y="21031200"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑣_𝑡 ) ⃗</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>582386</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="直線矢印コネクタ 98"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6068786" y="20945474"/>
+          <a:ext cx="3075214" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="右矢印 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066800" y="19916775"/>
+          <a:ext cx="1266825" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>61232</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>567417</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>134711</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="100" name="正方形/長方形 99"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1432832" y="19611975"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="⃗"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝐹</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="100" name="正方形/長方形 99"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1432832" y="19611975"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝐹 ⃗</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>138793</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>62594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>644978</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>130630</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="101" name="正方形/長方形 100"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="824593" y="22179644"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝑝</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="101" name="正方形/長方形 100"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="824593" y="22179644"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑝</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>329293</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>5444</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>149678</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>73480</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="103" name="正方形/長方形 102"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="329293" y="20407994"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝑚</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="103" name="正方形/長方形 102"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="329293" y="20407994"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑚</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>558100</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="円/楕円 103"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5019675" y="25393650"/>
+          <a:ext cx="339025" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>66677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>161929</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="右矢印 104"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4719636" y="26084216"/>
+          <a:ext cx="952502" cy="352424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>508907</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>329292</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="106" name="正方形/長方形 105"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4623707" y="25984200"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="⃗"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝐹</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="106" name="正方形/長方形 105"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4623707" y="25984200"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝐹 ⃗</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>401411</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="直線矢印コネクタ 106"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5202011" y="25574624"/>
+          <a:ext cx="1675039" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>289832</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>110217</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>115661</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="108" name="正方形/長方形 107"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5776232" y="25079325"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="⃗"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑣</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="108" name="正方形/長方形 107"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5776232" y="25079325"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑣 ⃗</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>337458</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>50347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>470300</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="円/楕円 108"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5138058" y="27482347"/>
+          <a:ext cx="132842" cy="130628"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>586468</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>129269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>406853</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>25855</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="111" name="正方形/長方形 110"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4701268" y="27389819"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝑜</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="111" name="正方形/長方形 110"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4701268" y="27389819"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑜</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2096,8 +6857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G119" sqref="G119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2116,7 +6877,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>

--- a/doc/image.xlsx
+++ b/doc/image.xlsx
@@ -80,6 +80,153 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7143</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>58341</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>178593</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="194" name="円弧 193"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4807743" y="38806041"/>
+          <a:ext cx="857250" cy="713183"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2863376"/>
+            <a:gd name="adj2" fmla="val 5318557"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>113109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>517922</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>132159</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="128" name="直線コネクタ 127"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="129" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4086226" y="36631959"/>
+          <a:ext cx="1918096" cy="3790950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>500063</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="直線コネクタ 112"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3929063" y="30489525"/>
+          <a:ext cx="1919287" cy="3790950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>149</xdr:row>
@@ -944,8 +1091,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="19863478">
-          <a:off x="1797760" y="1812529"/>
-          <a:ext cx="592541" cy="425650"/>
+          <a:off x="1801073" y="1837377"/>
+          <a:ext cx="594198" cy="433104"/>
           <a:chOff x="2476500" y="2390775"/>
           <a:chExt cx="752479" cy="490538"/>
         </a:xfrm>
@@ -1556,8 +1703,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="19863478">
-          <a:off x="506698" y="7334535"/>
-          <a:ext cx="592541" cy="425651"/>
+          <a:off x="506698" y="7438896"/>
+          <a:ext cx="594198" cy="433105"/>
           <a:chOff x="2476500" y="2390775"/>
           <a:chExt cx="752479" cy="490538"/>
         </a:xfrm>
@@ -4321,8 +4468,8 @@
       <xdr:row>125</xdr:row>
       <xdr:rowOff>10886</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="87" name="正方形/長方形 86"/>
@@ -4433,7 +4580,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="87" name="正方形/長方形 86"/>
@@ -4738,8 +4885,8 @@
       <xdr:row>131</xdr:row>
       <xdr:rowOff>130630</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="93" name="正方形/長方形 92"/>
@@ -4835,7 +4982,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="93" name="正方形/長方形 92"/>
@@ -4968,8 +5115,8 @@
       <xdr:row>138</xdr:row>
       <xdr:rowOff>92530</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="96" name="正方形/長方形 95"/>
@@ -5043,7 +5190,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="96" name="正方形/長方形 95"/>
@@ -5130,8 +5277,8 @@
       <xdr:row>125</xdr:row>
       <xdr:rowOff>10886</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="98" name="正方形/長方形 97"/>
@@ -5242,7 +5389,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="98" name="正方形/長方形 97"/>
@@ -5428,8 +5575,8 @@
       <xdr:row>116</xdr:row>
       <xdr:rowOff>134711</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="100" name="正方形/長方形 99"/>
@@ -5515,7 +5662,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="100" name="正方形/長方形 99"/>
@@ -5593,8 +5740,8 @@
       <xdr:row>131</xdr:row>
       <xdr:rowOff>130630</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="101" name="正方形/長方形 100"/>
@@ -5665,7 +5812,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="101" name="正方形/長方形 100"/>
@@ -5743,8 +5890,8 @@
       <xdr:row>121</xdr:row>
       <xdr:rowOff>73480</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="103" name="正方形/長方形 102"/>
@@ -5815,7 +5962,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="103" name="正方形/長方形 102"/>
@@ -5997,8 +6144,8 @@
       <xdr:row>153</xdr:row>
       <xdr:rowOff>163286</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="106" name="正方形/長方形 105"/>
@@ -6084,7 +6231,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="106" name="正方形/長方形 105"/>
@@ -6209,8 +6356,8 @@
       <xdr:row>148</xdr:row>
       <xdr:rowOff>115661</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="108" name="正方形/長方形 107"/>
@@ -6296,7 +6443,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="108" name="正方形/長方形 107"/>
@@ -6428,8 +6575,8 @@
       <xdr:row>162</xdr:row>
       <xdr:rowOff>25855</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="111" name="正方形/長方形 110"/>
@@ -6500,7 +6647,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="111" name="正方形/長方形 110"/>
@@ -6552,6 +6699,3637 @@
                   <a:latin typeface="Cambria Math"/>
                 </a:rPr>
                 <a:t>𝑜</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="30289500"/>
+          <a:ext cx="5572125" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:pattFill prst="wdDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="bg1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線コネクタ 37"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1133475" y="30499050"/>
+          <a:ext cx="5581650" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線コネクタ 44"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3933825" y="30499050"/>
+          <a:ext cx="0" cy="4410075"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>529525</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="円/楕円 111"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="34109025"/>
+          <a:ext cx="339025" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>215200</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="円/楕円 113"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1933575" y="34109025"/>
+          <a:ext cx="339025" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="円弧 116"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2066924" y="33489900"/>
+          <a:ext cx="3762375" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 11296356"/>
+            <a:gd name="adj2" fmla="val 21074048"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>356507</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>176892</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>29936</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="118" name="正方形/長方形 117"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5157107" y="35109150"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝑚</m:t>
+                    </m:r>
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="⃗"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑔</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="118" name="正方形/長方形 117"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5157107" y="35109150"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑚𝑔 ⃗</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>537482</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>357867</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>20411</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="119" name="正方形/長方形 118"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6023882" y="34070925"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝑚</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="119" name="正方形/長方形 118"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6023882" y="34070925"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑚</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>66677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>161929</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="右矢印 119"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5367336" y="34828166"/>
+          <a:ext cx="952502" cy="352424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>602534</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>20795</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>269158</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>51863</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="右矢印 120"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="3742162" flipH="1">
+          <a:off x="5135187" y="33550042"/>
+          <a:ext cx="888318" cy="352424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>80282</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>586467</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>48986</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="122" name="正方形/長方形 121"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5566682" y="33413700"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="⃗"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑆</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="122" name="正方形/長方形 121"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5566682" y="33413700"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑆 ⃗</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>461282</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>281667</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>115661</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="125" name="正方形/長方形 124"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3890282" y="31251525"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝜃</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="125" name="正方形/長方形 124"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3890282" y="31251525"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝜃</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="円弧 125"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3514725" y="30489526"/>
+          <a:ext cx="857250" cy="714374"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2564527"/>
+            <a:gd name="adj2" fmla="val 5603238"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>614362</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>113109</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="正方形/長方形 128"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1300162" y="36430744"/>
+          <a:ext cx="5572125" cy="201215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:pattFill prst="wdDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="bg1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>603647</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>122634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>122634</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="直線コネクタ 129"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1289447" y="36641484"/>
+          <a:ext cx="5582840" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>661988</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>134540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>661988</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>53578</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="131" name="直線コネクタ 130"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4090988" y="36653390"/>
+          <a:ext cx="0" cy="4891088"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>596200</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="円/楕円 131"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5057775" y="38747700"/>
+          <a:ext cx="339025" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>366032</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>186417</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>39461</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="135" name="正方形/長方形 134"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4480832" y="39747825"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝑚</m:t>
+                    </m:r>
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="⃗"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑔</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="135" name="正方形/長方形 134"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4480832" y="39747825"/>
+              <a:ext cx="506185" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑚𝑔 ⃗</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>325549</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>170259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>48816</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>66845</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="139" name="正方形/長方形 138"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5126149" y="37717809"/>
+              <a:ext cx="409067" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="⃗"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" i="1">
+                                <a:solidFill>
+                                  <a:sysClr val="windowText" lastClr="000000"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:sysClr val="windowText" lastClr="000000"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                              <m:t>𝑆</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:sysClr val="windowText" lastClr="000000"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                              <m:t>𝑔</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:e>
+                    </m:acc>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="139" name="正方形/長方形 138"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5126149" y="37717809"/>
+              <a:ext cx="409067" cy="410936"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑆_𝑔 ) ⃗  </a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>569629</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390014</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>102564</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="142" name="正方形/長方形 141"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3998629" y="37240369"/>
+              <a:ext cx="506185" cy="409745"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝜃</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="142" name="正方形/長方形 141"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3998629" y="37240369"/>
+              <a:ext cx="506185" cy="409745"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝜃</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>253603</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>77391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>425053</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>105966</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="円弧 142"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3682603" y="36596241"/>
+          <a:ext cx="857250" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2564527"/>
+            <a:gd name="adj2" fmla="val 5603238"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>33467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>283763</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="146" name="直線コネクタ 145"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5267325" y="38952617"/>
+          <a:ext cx="1188638" cy="2347783"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>1191</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>1191</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="148" name="直線矢印コネクタ 147"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5238750" y="38920341"/>
+          <a:ext cx="0" cy="1885950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476597</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>51708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>337457</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>159544</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="153" name="直線コネクタ 152"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3905597" y="39828108"/>
+          <a:ext cx="3289860" cy="1650886"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254338</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>29766</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>33440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="157" name="直線コネクタ 156"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5740738" y="40320516"/>
+          <a:ext cx="88562" cy="175124"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>250371</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>103416</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428721</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>22947</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="181" name="直線コネクタ 180"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5736771" y="40222716"/>
+          <a:ext cx="178350" cy="90981"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>140339</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>165324</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>431657</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>140441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="184" name="右中かっこ 183"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20021332">
+          <a:off x="5626739" y="38741574"/>
+          <a:ext cx="291318" cy="1689617"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 68333"/>
+            <a:gd name="adj2" fmla="val 49914"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>513159</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>129778</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="185" name="直線矢印コネクタ 184"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5238749" y="38902481"/>
+          <a:ext cx="760810" cy="1518047"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>358378</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>10716</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="187" name="直線矢印コネクタ 186"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4473178" y="37386816"/>
+          <a:ext cx="760809" cy="1518047"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>62948</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>17686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>354266</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>164254</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="189" name="右中かっこ 188"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20021332">
+          <a:off x="4863548" y="37222336"/>
+          <a:ext cx="291318" cy="1689618"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 68333"/>
+            <a:gd name="adj2" fmla="val 49914"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>168803</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>99392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>339587</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>3586</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="191" name="正方形/長方形 190"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8418281" y="37843240"/>
+              <a:ext cx="2233154" cy="947803"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝑚</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:begChr m:val="|"/>
+                        <m:endChr m:val="|"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:acc>
+                          <m:accPr>
+                            <m:chr m:val="⃗"/>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:sysClr val="windowText" lastClr="000000"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:accPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:sysClr val="windowText" lastClr="000000"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                              <m:t>𝑔</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:acc>
+                      </m:e>
+                    </m:d>
+                    <m:func>
+                      <m:funcPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:funcPr>
+                      <m:fName>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>cos</m:t>
+                        </m:r>
+                      </m:fName>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝜃</m:t>
+                        </m:r>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:sysClr val="windowText" lastClr="000000"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:acc>
+                              <m:accPr>
+                                <m:chr m:val="⃗"/>
+                                <m:ctrlPr>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:sysClr val="windowText" lastClr="000000"/>
+                                    </a:solidFill>
+                                    <a:latin typeface="Cambria Math"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:accPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:sysClr val="windowText" lastClr="000000"/>
+                                    </a:solidFill>
+                                    <a:latin typeface="Cambria Math"/>
+                                  </a:rPr>
+                                  <m:t>𝑜𝑝</m:t>
+                                </m:r>
+                              </m:e>
+                            </m:acc>
+                          </m:num>
+                          <m:den>
+                            <m:d>
+                              <m:dPr>
+                                <m:begChr m:val="|"/>
+                                <m:endChr m:val="|"/>
+                                <m:ctrlPr>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:sysClr val="windowText" lastClr="000000"/>
+                                    </a:solidFill>
+                                    <a:latin typeface="Cambria Math"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:dPr>
+                              <m:e>
+                                <m:acc>
+                                  <m:accPr>
+                                    <m:chr m:val="⃗"/>
+                                    <m:ctrlPr>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:sysClr val="windowText" lastClr="000000"/>
+                                        </a:solidFill>
+                                        <a:latin typeface="Cambria Math"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:accPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:sysClr val="windowText" lastClr="000000"/>
+                                        </a:solidFill>
+                                        <a:latin typeface="Cambria Math"/>
+                                      </a:rPr>
+                                      <m:t>𝑜𝑝</m:t>
+                                    </m:r>
+                                  </m:e>
+                                </m:acc>
+                              </m:e>
+                            </m:d>
+                          </m:den>
+                        </m:f>
+                      </m:e>
+                    </m:func>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="191" name="正方形/長方形 190"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8418281" y="37843240"/>
+              <a:ext cx="2233154" cy="947803"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑚|𝑔 ⃗ |  cos⁡〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝜃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t> (𝑜𝑝) ⃗/|(𝑜𝑝) ⃗ | 〗</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>346982</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>51197</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>167367</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>118042</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="195" name="正方形/長方形 194"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5147582" y="39484697"/>
+              <a:ext cx="506185" cy="409745"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝜃</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="195" name="正方形/長方形 194"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5147582" y="39484697"/>
+              <a:ext cx="506185" cy="409745"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝜃</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>263177</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>43172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>83562</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>110017</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="197" name="正方形/長方形 196"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3700460" y="37091281"/>
+              <a:ext cx="507841" cy="414714"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝑜</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="197" name="正方形/長方形 196"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3700460" y="37091281"/>
+              <a:ext cx="507841" cy="414714"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑜</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>461961</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>51456</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>282346</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>118300</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="198" name="正方形/長方形 197"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5274157" y="39012847"/>
+              <a:ext cx="507841" cy="414714"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝑝</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="198" name="正方形/長方形 197"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5274157" y="39012847"/>
+              <a:ext cx="507841" cy="414714"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑝</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>263177</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>18326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>83562</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>85170</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="199" name="正方形/長方形 198"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3700460" y="42110543"/>
+              <a:ext cx="507841" cy="414714"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝑞</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="199" name="正方形/長方形 198"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3700460" y="42110543"/>
+              <a:ext cx="507841" cy="414714"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑞</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>346006</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>43174</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>166390</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>110018</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="123" name="正方形/長方形 122"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5845658" y="39700304"/>
+              <a:ext cx="507841" cy="414714"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="⃗"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑓</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="123" name="正方形/長方形 122"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5845658" y="39700304"/>
+              <a:ext cx="507841" cy="414714"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑓</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t> ⃗</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>24847</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>140805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>532688</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>33714</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="124" name="正方形/長方形 123"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4837043" y="25361348"/>
+              <a:ext cx="507841" cy="414714"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝑝</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="124" name="正方形/長方形 123"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4837043" y="25361348"/>
+              <a:ext cx="507841" cy="414714"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑝</a:t>
               </a:r>
               <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
                 <a:solidFill>
@@ -6857,8 +10635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G119" sqref="G119"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O150" sqref="O150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/image.xlsx
+++ b/doc/image.xlsx
@@ -8225,8 +8225,8 @@
       <xdr:row>222</xdr:row>
       <xdr:rowOff>66845</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="139" name="正方形/長方形 138"/>
@@ -8360,7 +8360,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="139" name="正方形/長方形 138"/>
@@ -9107,8 +9107,8 @@
       <xdr:row>223</xdr:row>
       <xdr:rowOff>3586</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="191" name="正方形/長方形 190"/>
@@ -9336,7 +9336,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="191" name="正方形/長方形 190"/>
@@ -10032,8 +10032,8 @@
       <xdr:row>230</xdr:row>
       <xdr:rowOff>110018</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="123" name="正方形/長方形 122"/>
@@ -10119,7 +10119,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="123" name="正方形/長方形 122"/>
@@ -10206,8 +10206,8 @@
       <xdr:row>148</xdr:row>
       <xdr:rowOff>33714</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="124" name="正方形/長方形 123"/>
@@ -10216,6 +10216,991 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="4837043" y="25361348"/>
+              <a:ext cx="507841" cy="414714"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝑝</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="124" name="正方形/長方形 123"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4837043" y="25361348"/>
+              <a:ext cx="507841" cy="414714"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑝</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198783</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>356152</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>140804</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="円/楕円 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1573696" y="44171152"/>
+          <a:ext cx="844826" cy="844826"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>554935</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>24848</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>140804</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="円/楕円 126"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5367131" y="44171152"/>
+          <a:ext cx="844826" cy="844826"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>623471</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>72268</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>213484</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>76823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="右矢印 132"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1998384" y="44425638"/>
+          <a:ext cx="964926" cy="352424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>175384</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>5074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>683225</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>71918</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="137" name="正方形/長方形 136"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2237754" y="44706313"/>
+              <a:ext cx="507841" cy="414714"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="⃗"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝐹</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="137" name="正方形/長方形 136"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2237754" y="44706313"/>
+              <a:ext cx="507841" cy="414714"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝐹</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t> ⃗</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514970</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>154161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>335355</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>47070</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="138" name="正方形/長方形 137"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1202427" y="43811791"/>
+              <a:ext cx="507841" cy="414714"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝑚</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="138" name="正方形/長方形 137"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1202427" y="43811791"/>
+              <a:ext cx="507841" cy="414714"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑚</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200231</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>154161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>20616</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>47070</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="140" name="正方形/長方形 139"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5012427" y="43811791"/>
+              <a:ext cx="507841" cy="414714"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝑀</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="140" name="正方形/長方形 139"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5012427" y="43811791"/>
+              <a:ext cx="507841" cy="414714"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑀</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>605361</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>15837</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>289890</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>133220</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="右中かっこ 140"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3739249" y="43479905"/>
+          <a:ext cx="291318" cy="3809268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 68333"/>
+            <a:gd name="adj2" fmla="val 49914"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>208513</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>87898</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28898</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>154742</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="145" name="正方形/長方形 144"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3645796" y="45484876"/>
+              <a:ext cx="507841" cy="414714"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝑟</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="145" name="正方形/長方形 144"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3645796" y="45484876"/>
+              <a:ext cx="507841" cy="414714"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑟</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514970</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>71334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>335355</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>138179</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="149" name="正方形/長方形 148"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1202427" y="44946508"/>
               <a:ext cx="507841" cy="414714"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -10281,12 +11266,12 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="124" name="正方形/長方形 123"/>
+            <xdr:cNvPr id="149" name="正方形/長方形 148"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4837043" y="25361348"/>
+              <a:off x="1202427" y="44946508"/>
               <a:ext cx="507841" cy="414714"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -10330,6 +11315,156 @@
                   <a:latin typeface="Cambria Math"/>
                 </a:rPr>
                 <a:t>𝑝</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>498406</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>71334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>318790</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>138179</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="150" name="正方形/長方形 149"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5998058" y="44946508"/>
+              <a:ext cx="507841" cy="414714"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝑞</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="150" name="正方形/長方形 149"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5998058" y="44946508"/>
+              <a:ext cx="507841" cy="414714"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑞</a:t>
               </a:r>
               <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
                 <a:solidFill>
@@ -10635,8 +11770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O150" sqref="O150"/>
+    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O269" sqref="O269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/image.xlsx
+++ b/doc/image.xlsx
@@ -7035,19 +7035,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>356507</xdr:colOff>
-      <xdr:row>204</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>176892</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>29936</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+      <xdr:colOff>522159</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>158198</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342543</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>54784</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="118" name="正方形/長方形 117"/>
@@ -7055,8 +7055,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5157107" y="35109150"/>
-              <a:ext cx="506185" cy="410936"/>
+              <a:off x="6021811" y="35293024"/>
+              <a:ext cx="507841" cy="418390"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7097,15 +7097,6 @@
                     <m:jc m:val="center"/>
                   </m:oMathParaPr>
                   <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" i="1">
-                        <a:solidFill>
-                          <a:sysClr val="windowText" lastClr="000000"/>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math"/>
-                      </a:rPr>
-                      <m:t>𝑚</m:t>
-                    </m:r>
                     <m:acc>
                       <m:accPr>
                         <m:chr m:val="⃗"/>
@@ -7126,7 +7117,7 @@
                             </a:solidFill>
                             <a:latin typeface="Cambria Math"/>
                           </a:rPr>
-                          <m:t>𝑔</m:t>
+                          <m:t>𝐹</m:t>
                         </m:r>
                       </m:e>
                     </m:acc>
@@ -7142,7 +7133,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="118" name="正方形/長方形 117"/>
@@ -7150,8 +7141,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5157107" y="35109150"/>
-              <a:ext cx="506185" cy="410936"/>
+              <a:off x="6021811" y="35293024"/>
+              <a:ext cx="507841" cy="418390"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7193,7 +7184,7 @@
                   </a:solidFill>
                   <a:latin typeface="Cambria Math"/>
                 </a:rPr>
-                <a:t>𝑚𝑔 ⃗</a:t>
+                <a:t>𝐹 ⃗</a:t>
               </a:r>
               <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
                 <a:solidFill>
@@ -10512,8 +10503,8 @@
       <xdr:row>259</xdr:row>
       <xdr:rowOff>71918</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="137" name="正方形/長方形 136"/>
@@ -10599,7 +10590,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="137" name="正方形/長方形 136"/>
@@ -10686,8 +10677,8 @@
       <xdr:row>254</xdr:row>
       <xdr:rowOff>47070</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="138" name="正方形/長方形 137"/>
@@ -10758,7 +10749,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="138" name="正方形/長方形 137"/>
@@ -10836,8 +10827,8 @@
       <xdr:row>254</xdr:row>
       <xdr:rowOff>47070</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="140" name="正方形/長方形 139"/>
@@ -10908,7 +10899,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="140" name="正方形/長方形 139"/>
@@ -11041,8 +11032,8 @@
       <xdr:row>263</xdr:row>
       <xdr:rowOff>154742</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="145" name="正方形/長方形 144"/>
@@ -11113,7 +11104,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="145" name="正方形/長方形 144"/>
@@ -11191,8 +11182,8 @@
       <xdr:row>260</xdr:row>
       <xdr:rowOff>138179</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="149" name="正方形/長方形 148"/>
@@ -11263,7 +11254,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="149" name="正方形/長方形 148"/>
@@ -11341,8 +11332,8 @@
       <xdr:row>260</xdr:row>
       <xdr:rowOff>138179</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="150" name="正方形/長方形 149"/>
@@ -11413,7 +11404,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="150" name="正方形/長方形 149"/>
@@ -11770,8 +11761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O269" sqref="O269"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
